--- a/julia/Resolve_MILP/result_milp_Zt.xlsx
+++ b/julia/Resolve_MILP/result_milp_Zt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Instances</t>
   </si>
@@ -55,18 +55,6 @@
   </si>
   <si>
     <t>20_10</t>
-  </si>
-  <si>
-    <t>50_5</t>
-  </si>
-  <si>
-    <t>50_10</t>
-  </si>
-  <si>
-    <t>100_5</t>
-  </si>
-  <si>
-    <t>100_10</t>
   </si>
 </sst>
 </file>
@@ -418,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,7 +449,7 @@
         <v>1.0</v>
       </c>
       <c r="F2">
-        <v>0.0099</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -481,7 +469,7 @@
         <v>324.7</v>
       </c>
       <c r="F3">
-        <v>0.0867</v>
+        <v>0.0998</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -501,7 +489,7 @@
         <v>162.7</v>
       </c>
       <c r="F4">
-        <v>0.0408</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -521,87 +509,7 @@
         <v>1482.4</v>
       </c>
       <c r="F5">
-        <v>0.2137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>170036.6</v>
-      </c>
-      <c r="C6">
-        <v>170029.298</v>
-      </c>
-      <c r="D6">
-        <v>0.0043</v>
-      </c>
-      <c r="E6">
-        <v>448.2</v>
-      </c>
-      <c r="F6">
-        <v>0.171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>328913.93</v>
-      </c>
-      <c r="C7">
-        <v>328897.196</v>
-      </c>
-      <c r="D7">
-        <v>0.0051</v>
-      </c>
-      <c r="E7">
-        <v>5158.1</v>
-      </c>
-      <c r="F7">
-        <v>2.0064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>333493.0</v>
-      </c>
-      <c r="C8">
-        <v>333471.984</v>
-      </c>
-      <c r="D8">
-        <v>0.0063</v>
-      </c>
-      <c r="E8">
-        <v>170.7</v>
-      </c>
-      <c r="F8">
-        <v>0.1524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>646605.28</v>
-      </c>
-      <c r="C9">
-        <v>646559.822</v>
-      </c>
-      <c r="D9">
-        <v>0.007</v>
-      </c>
-      <c r="E9">
-        <v>6451.9</v>
-      </c>
-      <c r="F9">
-        <v>4.5392</v>
+        <v>0.2385</v>
       </c>
     </row>
   </sheetData>

--- a/julia/Resolve_MILP/result_milp_Zt.xlsx
+++ b/julia/Resolve_MILP/result_milp_Zt.xlsx
@@ -449,7 +449,7 @@
         <v>1.0</v>
       </c>
       <c r="F2">
-        <v>0.0103</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -469,7 +469,7 @@
         <v>324.7</v>
       </c>
       <c r="F3">
-        <v>0.0998</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -489,7 +489,7 @@
         <v>162.7</v>
       </c>
       <c r="F4">
-        <v>0.0485</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -509,7 +509,7 @@
         <v>1482.4</v>
       </c>
       <c r="F5">
-        <v>0.2385</v>
+        <v>0.223</v>
       </c>
     </row>
   </sheetData>
